--- a/biology/Biologie cellulaire et moléculaire/Genomics/Genomics.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Genomics/Genomics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Genomics est un journal scientifique de génomique, revu par les pairs avec des articles sur la génomique comparative, la génomique fonctionnelle, les sciences associées, les éléments de la régulation de l'ADN et la génétique abordant le génome dans sa globalité[1],[2]. Le journal a été fondé en septembre 1987[3].
+Genomics est un journal scientifique de génomique, revu par les pairs avec des articles sur la génomique comparative, la génomique fonctionnelle, les sciences associées, les éléments de la régulation de l'ADN et la génétique abordant le génome dans sa globalité,. Le journal a été fondé en septembre 1987.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Indexation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Genomics est indexé par :
 BIOBASE
